--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89915.99161179521</v>
+        <v>16148193.92065112</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89915.99161179521</v>
+        <v>16148193.92065112</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6032.454131331583</v>
+        <v>645066.5595872948</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6032.454131331583</v>
+        <v>645066.5595872948</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112797543.436394</v>
+        <v>45841452.77082986</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9033.857575268563</v>
+        <v>1085515.514175052</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17150.49428675463</v>
+        <v>1995084.693593902</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25095.03173784401</v>
+        <v>2904653.873012753</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33383.00369619711</v>
+        <v>3816658.122221383</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41654.68925806905</v>
+        <v>4728169.497040543</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49836.54442189458</v>
+        <v>5639680.8718597</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>58108.3608728628</v>
+        <v>6551192.246678854</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66341.78965193969</v>
+        <v>7462703.621498008</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74506.6148357838</v>
+        <v>8352425.558755329</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82482.13114945483</v>
+        <v>9265480.985203156</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90544.13877711486</v>
+        <v>10174993.06421812</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98365.83901035418</v>
+        <v>11082998.25267661</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>106183.6975827931</v>
+        <v>11991350.1613124</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114361.0517761545</v>
+        <v>12840198.26075912</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122783.2862437012</v>
+        <v>13670028.55055385</v>
       </c>
     </row>
   </sheetData>
